--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.3375403420915</v>
+        <v>126.8390013285539</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.6038081070025</v>
+        <v>173.5467173594626</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.8072341403369</v>
+        <v>156.9836622290714</v>
       </c>
       <c r="AD2" t="n">
-        <v>90337.5403420915</v>
+        <v>126839.0013285539</v>
       </c>
       <c r="AE2" t="n">
-        <v>123603.8081070025</v>
+        <v>173546.7173594626</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.098538557197762e-06</v>
+        <v>5.733107572919847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>111807.2341403369</v>
+        <v>156983.6622290714</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.18367567619758</v>
+        <v>107.489625557533</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.8155748648967</v>
+        <v>147.0720477953525</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.9531761409829</v>
+        <v>133.0356979707196</v>
       </c>
       <c r="AD3" t="n">
-        <v>83183.67567619758</v>
+        <v>107489.625557533</v>
       </c>
       <c r="AE3" t="n">
-        <v>113815.5748648967</v>
+        <v>147072.0477953526</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.671969394081763e-06</v>
+        <v>6.794104753622547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>102953.1761409829</v>
+        <v>133035.6979707195</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.49325594162661</v>
+        <v>92.88445716898264</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.71549448848837</v>
+        <v>127.0886120715935</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.7714192250526</v>
+        <v>114.9594533055015</v>
       </c>
       <c r="AD4" t="n">
-        <v>68493.25594162662</v>
+        <v>92884.45716898264</v>
       </c>
       <c r="AE4" t="n">
-        <v>93715.49448848837</v>
+        <v>127088.6120715935</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.904894306413975e-06</v>
+        <v>7.225076824540128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.893229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>84771.4192250526</v>
+        <v>114959.4533055015</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.44390215502378</v>
+        <v>91.8351033823798</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.2797223434373</v>
+        <v>125.6528399265424</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.47267515840588</v>
+        <v>113.6607092388548</v>
       </c>
       <c r="AD5" t="n">
-        <v>67443.90215502378</v>
+        <v>91835.10338237981</v>
       </c>
       <c r="AE5" t="n">
-        <v>92279.7223434373</v>
+        <v>125652.8399265424</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.014599395898031e-06</v>
+        <v>7.428059962461026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.782552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>83472.67515840588</v>
+        <v>113660.7092388548</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.86131021507637</v>
+        <v>91.25251144243238</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.48259434905921</v>
+        <v>124.8557119321644</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.75162394103482</v>
+        <v>112.9396580214837</v>
       </c>
       <c r="AD6" t="n">
-        <v>66861.31021507637</v>
+        <v>91252.51144243238</v>
       </c>
       <c r="AE6" t="n">
-        <v>91482.59434905922</v>
+        <v>124855.7119321644</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.06055882593933e-06</v>
+        <v>7.513096940879377e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.743489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>82751.62394103482</v>
+        <v>112939.6580214837</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.32594029446049</v>
+        <v>90.71714152181652</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.75007760481898</v>
+        <v>124.1231951879241</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.08901756677093</v>
+        <v>112.2770516472198</v>
       </c>
       <c r="AD7" t="n">
-        <v>66325.9402944605</v>
+        <v>90717.14152181652</v>
       </c>
       <c r="AE7" t="n">
-        <v>90750.07760481899</v>
+        <v>124123.1951879241</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.097998605414314e-06</v>
+        <v>7.582370335182592e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>82089.01756677094</v>
+        <v>112277.0516472198</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.81883763642301</v>
+        <v>90.21003886377902</v>
       </c>
       <c r="AB8" t="n">
-        <v>90.05623737630209</v>
+        <v>123.4293549594072</v>
       </c>
       <c r="AC8" t="n">
-        <v>81.46139647585258</v>
+        <v>111.6494305563015</v>
       </c>
       <c r="AD8" t="n">
-        <v>65818.83763642301</v>
+        <v>90210.03886377902</v>
       </c>
       <c r="AE8" t="n">
-        <v>90056.23737630209</v>
+        <v>123429.3549594072</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.139779905451859e-06</v>
+        <v>7.659676679199276e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>81461.39647585258</v>
+        <v>111649.4305563015</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.84938914130515</v>
+        <v>89.24059036866117</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.7297951762334</v>
+        <v>122.1029127593385</v>
       </c>
       <c r="AC9" t="n">
-        <v>80.26154805768472</v>
+        <v>110.4495821381336</v>
       </c>
       <c r="AD9" t="n">
-        <v>64849.38914130515</v>
+        <v>89240.59036866117</v>
       </c>
       <c r="AE9" t="n">
-        <v>88729.7951762334</v>
+        <v>122102.9127593385</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.194959231311499e-06</v>
+        <v>7.761772878783319e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>80261.54805768472</v>
+        <v>110449.5821381336</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.81391011026652</v>
+        <v>89.20511133762254</v>
       </c>
       <c r="AB10" t="n">
-        <v>88.68125120074197</v>
+        <v>122.0543687838471</v>
       </c>
       <c r="AC10" t="n">
-        <v>80.21763705108229</v>
+        <v>110.4056711315312</v>
       </c>
       <c r="AD10" t="n">
-        <v>64813.91011026652</v>
+        <v>89205.11133762254</v>
       </c>
       <c r="AE10" t="n">
-        <v>88681.25120074197</v>
+        <v>122054.3687838471</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.189123854211283e-06</v>
+        <v>7.750975903361993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>80217.63705108229</v>
+        <v>110405.6711315312</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>64.75675600088645</v>
+        <v>89.14795722824248</v>
       </c>
       <c r="AB11" t="n">
-        <v>88.60305042682687</v>
+        <v>121.976168009932</v>
       </c>
       <c r="AC11" t="n">
-        <v>80.14689964927413</v>
+        <v>110.334933729723</v>
       </c>
       <c r="AD11" t="n">
-        <v>64756.75600088646</v>
+        <v>89147.95722824248</v>
       </c>
       <c r="AE11" t="n">
-        <v>88603.05042682687</v>
+        <v>121976.168009932</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.190781101307745e-06</v>
+        <v>7.75404224438165e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>80146.89964927413</v>
+        <v>110334.933729723</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.15106574719644</v>
+        <v>105.59323866661</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4027124045031</v>
+        <v>144.477327588508</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6751552908439</v>
+        <v>130.6886142187027</v>
       </c>
       <c r="AD2" t="n">
-        <v>82151.06574719644</v>
+        <v>105593.23866661</v>
       </c>
       <c r="AE2" t="n">
-        <v>112402.7124045031</v>
+        <v>144477.327588508</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.532337907159618e-06</v>
+        <v>6.733181205228203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>101675.1552908439</v>
+        <v>130688.6142187027</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.20548532862472</v>
+        <v>88.73290959405887</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.21702168957881</v>
+        <v>121.408281526233</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.70227435642332</v>
+        <v>109.8212455349944</v>
       </c>
       <c r="AD3" t="n">
-        <v>65205.48532862472</v>
+        <v>88732.90959405887</v>
       </c>
       <c r="AE3" t="n">
-        <v>89217.02168957882</v>
+        <v>121408.281526233</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.070007218235873e-06</v>
+        <v>7.75806189193399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80702.27435642331</v>
+        <v>109821.2455349944</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.55367490033647</v>
+        <v>87.08109916577062</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.95694178886296</v>
+        <v>119.1482016255171</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.657893309389</v>
+        <v>107.7768644879601</v>
       </c>
       <c r="AD4" t="n">
-        <v>63553.67490033647</v>
+        <v>87081.09916577062</v>
       </c>
       <c r="AE4" t="n">
-        <v>86956.94178886297</v>
+        <v>119148.2016255171</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.265738454396296e-06</v>
+        <v>8.131155835726919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.684895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>78657.89330938899</v>
+        <v>107776.8644879601</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.50981571859965</v>
+        <v>86.03723998403379</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.52868760459444</v>
+        <v>117.7199474412486</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.36594969989928</v>
+        <v>106.4849208784703</v>
       </c>
       <c r="AD5" t="n">
-        <v>62509.81571859965</v>
+        <v>86037.23998403379</v>
       </c>
       <c r="AE5" t="n">
-        <v>85528.68760459444</v>
+        <v>117719.9474412486</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.38429759201629e-06</v>
+        <v>8.357147849546716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>77365.94969989927</v>
+        <v>106484.9208784703</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.89177486847985</v>
+        <v>85.41919913391399</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.68305684742299</v>
+        <v>116.8743166840771</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.60102475534177</v>
+        <v>105.7199959339128</v>
       </c>
       <c r="AD6" t="n">
-        <v>61891.77486847985</v>
+        <v>85419.19913391399</v>
       </c>
       <c r="AE6" t="n">
-        <v>84683.05684742299</v>
+        <v>116874.3166840771</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.429861969346011e-06</v>
+        <v>8.444000584796809e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.548177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>76601.02475534177</v>
+        <v>105719.9959339128</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.341007856435</v>
+        <v>84.86843212186915</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.92947312341791</v>
+        <v>116.120732960072</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.91936200429409</v>
+        <v>105.0383331828652</v>
       </c>
       <c r="AD7" t="n">
-        <v>61341.007856435</v>
+        <v>84868.43212186915</v>
       </c>
       <c r="AE7" t="n">
-        <v>83929.47312341791</v>
+        <v>116120.732960072</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.468109968121993e-06</v>
+        <v>8.516907173369225e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>75919.36200429409</v>
+        <v>105038.3331828652</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.6559673015314</v>
+        <v>84.01279936637334</v>
       </c>
       <c r="AB8" t="n">
-        <v>82.99217041434294</v>
+        <v>114.9500184761502</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.07151415026033</v>
+        <v>103.9793500461804</v>
       </c>
       <c r="AD8" t="n">
-        <v>60655.9673015314</v>
+        <v>84012.79936637335</v>
       </c>
       <c r="AE8" t="n">
-        <v>82992.17041434294</v>
+        <v>114950.0184761502</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.514060688873694e-06</v>
+        <v>8.604496338806919e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.483072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>75071.51415026032</v>
+        <v>103979.3500461804</v>
       </c>
     </row>
   </sheetData>
@@ -5411,28 +5411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.36454635912011</v>
+        <v>74.29143134150158</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.0157266061515</v>
+        <v>101.6488138680387</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.04720813709268</v>
+        <v>91.94759373750482</v>
       </c>
       <c r="AD2" t="n">
-        <v>53364.5463591201</v>
+        <v>74291.43134150158</v>
       </c>
       <c r="AE2" t="n">
-        <v>73015.7266061515</v>
+        <v>101648.8138680387</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.011787662901698e-06</v>
+        <v>1.06737961224433e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66047.20813709268</v>
+        <v>91947.59373750482</v>
       </c>
     </row>
     <row r="3">
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.65733099746654</v>
+        <v>62.12086299720833</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.67983923131212</v>
+        <v>84.9965053318041</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.9342545748687</v>
+        <v>76.88455815630135</v>
       </c>
       <c r="AD3" t="n">
-        <v>51657.33099746654</v>
+        <v>62120.86299720833</v>
       </c>
       <c r="AE3" t="n">
-        <v>70679.83923131211</v>
+        <v>84996.5053318041</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.326654499966068e-06</v>
+        <v>1.134438008381525e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>63934.2545748687</v>
+        <v>76884.55815630135</v>
       </c>
     </row>
     <row r="4">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.52119778603579</v>
+        <v>61.98472978577758</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.49357576565924</v>
+        <v>84.81024186615122</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.76576783295526</v>
+        <v>76.71607141438791</v>
       </c>
       <c r="AD4" t="n">
-        <v>51521.19778603579</v>
+        <v>61984.72978577758</v>
       </c>
       <c r="AE4" t="n">
-        <v>70493.57576565925</v>
+        <v>84810.24186615122</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.369980349187315e-06</v>
+        <v>1.143665280415463e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>63765.76783295527</v>
+        <v>76716.07141438792</v>
       </c>
     </row>
   </sheetData>
@@ -5920,28 +5920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.05302164504495</v>
+        <v>80.99661373744534</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.79894945016787</v>
+        <v>110.8231402339343</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.08761111670049</v>
+        <v>100.2463352712902</v>
       </c>
       <c r="AD2" t="n">
-        <v>59053.02164504495</v>
+        <v>80996.61373744534</v>
       </c>
       <c r="AE2" t="n">
-        <v>80798.94945016787</v>
+        <v>110823.1402339343</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421556258679352e-06</v>
+        <v>8.977287877114151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73087.61111670049</v>
+        <v>100246.3352712902</v>
       </c>
     </row>
     <row r="3">
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.4608350987548</v>
+        <v>78.23383499056298</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.25220545833611</v>
+        <v>107.0429844672556</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.87936339356153</v>
+        <v>96.82695226550022</v>
       </c>
       <c r="AD3" t="n">
-        <v>56460.8350987548</v>
+        <v>78233.83499056299</v>
       </c>
       <c r="AE3" t="n">
-        <v>77252.2054583361</v>
+        <v>107042.9844672557</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.842149918707166e-06</v>
+        <v>9.831238419515826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>69879.36339356154</v>
+        <v>96826.95226550022</v>
       </c>
     </row>
     <row r="4">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.2826898614625</v>
+        <v>77.0556897532707</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.64021516857402</v>
+        <v>105.4309941774936</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.42121919461125</v>
+        <v>95.36880806654993</v>
       </c>
       <c r="AD4" t="n">
-        <v>55282.6898614625</v>
+        <v>77055.68975327069</v>
       </c>
       <c r="AE4" t="n">
-        <v>75640.21516857401</v>
+        <v>105430.9941774936</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.002968932307308e-06</v>
+        <v>1.015775661734901e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.352864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>68421.21919461126</v>
+        <v>95368.80806654993</v>
       </c>
     </row>
     <row r="5">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.94902658760207</v>
+        <v>76.72202647941026</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.18368235709367</v>
+        <v>104.9744613660132</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.00825723391061</v>
+        <v>94.95584610584929</v>
       </c>
       <c r="AD5" t="n">
-        <v>54949.02658760207</v>
+        <v>76722.02647941025</v>
       </c>
       <c r="AE5" t="n">
-        <v>75183.68235709367</v>
+        <v>104974.4613660132</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.048154976679972e-06</v>
+        <v>1.024949990967175e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.326822916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>68008.25723391061</v>
+        <v>94955.84610584928</v>
       </c>
     </row>
   </sheetData>
@@ -6535,28 +6535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.2228124761833</v>
+        <v>69.1451968695778</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.34882358711707</v>
+        <v>94.6075088277146</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.92114638864474</v>
+        <v>85.57830096769331</v>
       </c>
       <c r="AD2" t="n">
-        <v>49222.8124761833</v>
+        <v>69145.19686957781</v>
       </c>
       <c r="AE2" t="n">
-        <v>67348.82358711706</v>
+        <v>94607.5088277146</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.498962428494388e-06</v>
+        <v>1.22451152486936e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>60921.14638864474</v>
+        <v>85578.30096769331</v>
       </c>
     </row>
     <row r="3">
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.75825700165549</v>
+        <v>58.8048348071999</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.71319829212734</v>
+        <v>80.45936926939791</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.34618427970294</v>
+        <v>72.78043999177932</v>
       </c>
       <c r="AD3" t="n">
-        <v>48758.2570016555</v>
+        <v>58804.8348071999</v>
       </c>
       <c r="AE3" t="n">
-        <v>66713.19829212734</v>
+        <v>80459.36926939791</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.605747635266332e-06</v>
+        <v>1.248290504645661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>60346.18427970294</v>
+        <v>72780.43999177932</v>
       </c>
     </row>
   </sheetData>
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.09358979285415</v>
+        <v>107.9333913026092</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.0605595018832</v>
+        <v>147.6792276653284</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0793411915628</v>
+        <v>133.5849294460874</v>
       </c>
       <c r="AD2" t="n">
-        <v>84093.58979285415</v>
+        <v>107933.3913026091</v>
       </c>
       <c r="AE2" t="n">
-        <v>115060.5595018833</v>
+        <v>147679.2276653284</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42108924821106e-06</v>
+        <v>6.468471257633658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>104079.3411915628</v>
+        <v>133584.9294460874</v>
       </c>
     </row>
     <row r="3">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.44612773313801</v>
+        <v>90.20058838832135</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.91452336071306</v>
+        <v>123.4164244019605</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.23776885052358</v>
+        <v>111.6377340731094</v>
       </c>
       <c r="AD3" t="n">
-        <v>66446.12773313801</v>
+        <v>90200.58838832135</v>
       </c>
       <c r="AE3" t="n">
-        <v>90914.52336071306</v>
+        <v>123416.4244019605</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.986233617637148e-06</v>
+        <v>7.537025698871262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>82237.76885052359</v>
+        <v>111637.7340731094</v>
       </c>
     </row>
     <row r="4">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.75483646325704</v>
+        <v>88.50929711844039</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.60042403075826</v>
+        <v>121.1023250720057</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.14452391276014</v>
+        <v>109.5444891353459</v>
       </c>
       <c r="AD4" t="n">
-        <v>64754.83646325703</v>
+        <v>88509.29711844039</v>
       </c>
       <c r="AE4" t="n">
-        <v>88600.42403075827</v>
+        <v>121102.3250720057</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.176186448416006e-06</v>
+        <v>7.896181610059987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.73046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>80144.52391276014</v>
+        <v>109544.4891353459</v>
       </c>
     </row>
     <row r="5">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.95108991656103</v>
+        <v>87.70555057174438</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.50070254677426</v>
+        <v>120.0026035880217</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.14975830373842</v>
+        <v>108.5497235263242</v>
       </c>
       <c r="AD5" t="n">
-        <v>63951.08991656103</v>
+        <v>87705.55057174439</v>
       </c>
       <c r="AE5" t="n">
-        <v>87500.70254677426</v>
+        <v>120002.6035880217</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.25266531553231e-06</v>
+        <v>8.040785073420928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>79149.75830373842</v>
+        <v>108549.7235263242</v>
       </c>
     </row>
     <row r="6">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.13986613378845</v>
+        <v>86.89432678897181</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.39075037851794</v>
+        <v>118.8926514197654</v>
       </c>
       <c r="AC6" t="n">
-        <v>78.14573841259246</v>
+        <v>107.5457036351782</v>
       </c>
       <c r="AD6" t="n">
-        <v>63139.86613378846</v>
+        <v>86894.32678897181</v>
       </c>
       <c r="AE6" t="n">
-        <v>86390.75037851793</v>
+        <v>118892.6514197654</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.339433892554752e-06</v>
+        <v>8.204843946433062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>78145.73841259246</v>
+        <v>107545.7036351782</v>
       </c>
     </row>
     <row r="7">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.62201744655381</v>
+        <v>86.37647810173718</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.68220695877216</v>
+        <v>118.1841080000196</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.50481738238005</v>
+        <v>106.9047826049658</v>
       </c>
       <c r="AD7" t="n">
-        <v>62622.01744655381</v>
+        <v>86376.47810173717</v>
       </c>
       <c r="AE7" t="n">
-        <v>85682.20695877215</v>
+        <v>118184.1080000196</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.378247635503014e-06</v>
+        <v>8.278231561442902e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.561197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>77504.81738238006</v>
+        <v>106904.7826049658</v>
       </c>
     </row>
     <row r="8">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.66000298972738</v>
+        <v>85.41446364491073</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.36593633786038</v>
+        <v>116.8678373791079</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.31416978213026</v>
+        <v>105.7141350047161</v>
       </c>
       <c r="AD8" t="n">
-        <v>61660.00298972738</v>
+        <v>85414.46364491072</v>
       </c>
       <c r="AE8" t="n">
-        <v>84365.93633786037</v>
+        <v>116867.8373791078</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.430031198844592e-06</v>
+        <v>8.376142041640988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>76314.16978213027</v>
+        <v>105714.1350047161</v>
       </c>
     </row>
     <row r="9">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.7646136828829</v>
+        <v>85.51907433806625</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.50906930333376</v>
+        <v>117.0109703445812</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.4436423382673</v>
+        <v>105.8436075608531</v>
       </c>
       <c r="AD9" t="n">
-        <v>61764.6136828829</v>
+        <v>85519.07433806625</v>
       </c>
       <c r="AE9" t="n">
-        <v>84509.06930333376</v>
+        <v>117010.9703445812</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.425699948860847e-06</v>
+        <v>8.367952671531999e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.522135416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>76443.64233826729</v>
+        <v>105843.6075608531</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.07533491782551</v>
+        <v>56.8750134111752</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.41055005174995</v>
+        <v>77.81890249764696</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.26329755559933</v>
+        <v>70.39197566280505</v>
       </c>
       <c r="AD2" t="n">
-        <v>47075.33491782552</v>
+        <v>56875.0134111752</v>
       </c>
       <c r="AE2" t="n">
-        <v>64410.55005174995</v>
+        <v>77818.90249764697</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.739053898941033e-06</v>
+        <v>1.315716413474982e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58263.29755559933</v>
+        <v>70391.97566280505</v>
       </c>
     </row>
   </sheetData>
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.24166021657264</v>
+        <v>98.94699020386575</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.3172030529353</v>
+        <v>135.3836372299975</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.36131560370346</v>
+        <v>122.462812904931</v>
       </c>
       <c r="AD2" t="n">
-        <v>76241.66021657264</v>
+        <v>98946.99020386575</v>
       </c>
       <c r="AE2" t="n">
-        <v>104317.2030529352</v>
+        <v>135383.6372299975</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.92077664452848e-06</v>
+        <v>7.684668038400656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.134114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94361.31560370346</v>
+        <v>122462.812904931</v>
       </c>
     </row>
     <row r="3">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.89943685487172</v>
+        <v>83.69001818818539</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.32529619834162</v>
+        <v>114.5083750280531</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.37284687697925</v>
+        <v>103.579856428919</v>
       </c>
       <c r="AD3" t="n">
-        <v>60899.43685487172</v>
+        <v>83690.01818818539</v>
       </c>
       <c r="AE3" t="n">
-        <v>83325.29619834162</v>
+        <v>114508.3750280531</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.431354818589432e-06</v>
+        <v>8.685394203403361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.65234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>75372.84687697925</v>
+        <v>103579.856428919</v>
       </c>
     </row>
     <row r="4">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.47683696882494</v>
+        <v>82.26741830213862</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.37883227357585</v>
+        <v>112.5619111032873</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.61215073731323</v>
+        <v>101.819160289253</v>
       </c>
       <c r="AD4" t="n">
-        <v>59476.83696882494</v>
+        <v>82267.41830213863</v>
       </c>
       <c r="AE4" t="n">
-        <v>81378.83227357586</v>
+        <v>112561.9111032873</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.621375580343443e-06</v>
+        <v>9.057832270366802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.502604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>73612.15073731323</v>
+        <v>101819.160289253</v>
       </c>
     </row>
     <row r="5">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.59906961620985</v>
+        <v>81.21905874893133</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.17783225736592</v>
+        <v>111.1274993122306</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.52577247703589</v>
+        <v>100.5216467463246</v>
       </c>
       <c r="AD5" t="n">
-        <v>58599.06961620985</v>
+        <v>81219.05874893133</v>
       </c>
       <c r="AE5" t="n">
-        <v>80177.83225736592</v>
+        <v>111127.4993122306</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.710315646233805e-06</v>
+        <v>9.232153570366055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>72525.77247703589</v>
+        <v>100521.6467463246</v>
       </c>
     </row>
     <row r="6">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.1091433878847</v>
+        <v>80.72913252060617</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.50749357775203</v>
+        <v>110.4571606326167</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.91940998017789</v>
+        <v>99.91528424946661</v>
       </c>
       <c r="AD6" t="n">
-        <v>58109.1433878847</v>
+        <v>80729.13252060617</v>
       </c>
       <c r="AE6" t="n">
-        <v>79507.49357775203</v>
+        <v>110457.1606326167</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.750046355388185e-06</v>
+        <v>9.310025211232853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>71919.40998017789</v>
+        <v>99915.28424946661</v>
       </c>
     </row>
     <row r="7">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.20038051319987</v>
+        <v>80.82036964592136</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.63232823770608</v>
+        <v>110.5819952925707</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.03233059539251</v>
+        <v>100.0282048646812</v>
       </c>
       <c r="AD7" t="n">
-        <v>58200.38051319987</v>
+        <v>80820.36964592135</v>
       </c>
       <c r="AE7" t="n">
-        <v>79632.32823770608</v>
+        <v>110581.9952925707</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.746264847691588e-06</v>
+        <v>9.302613508407712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>72032.33059539252</v>
+        <v>100028.2048646812</v>
       </c>
     </row>
   </sheetData>
@@ -9101,28 +9101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.02024690835103</v>
+        <v>103.2267500943393</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.4872320641036</v>
+        <v>141.2393935218213</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.03792430222886</v>
+        <v>127.7597040348706</v>
       </c>
       <c r="AD2" t="n">
-        <v>80020.24690835102</v>
+        <v>103226.7500943393</v>
       </c>
       <c r="AE2" t="n">
-        <v>109487.2320641036</v>
+        <v>141239.3935218213</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.671826789854613e-06</v>
+        <v>7.059832682625162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99037.92430222886</v>
+        <v>127759.7040348706</v>
       </c>
     </row>
     <row r="3">
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.70066375367535</v>
+        <v>86.99241828568418</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.15805842269165</v>
+        <v>119.0268645330586</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.8398156539541</v>
+        <v>107.6671076373081</v>
       </c>
       <c r="AD3" t="n">
-        <v>63700.66375367535</v>
+        <v>86992.41828568418</v>
       </c>
       <c r="AE3" t="n">
-        <v>87158.05842269165</v>
+        <v>119026.8645330586</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.196906259829906e-06</v>
+        <v>8.069404597441398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.782552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>78839.81565395411</v>
+        <v>107667.1076373081</v>
       </c>
     </row>
     <row r="4">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.18785404003856</v>
+        <v>85.4796085720474</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.08816543204058</v>
+        <v>116.9569715424075</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.96747034521707</v>
+        <v>105.794762328571</v>
       </c>
       <c r="AD4" t="n">
-        <v>62187.85404003856</v>
+        <v>85479.60857204739</v>
       </c>
       <c r="AE4" t="n">
-        <v>85088.16543204058</v>
+        <v>116956.9715424075</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.388524555799256e-06</v>
+        <v>8.437829685523214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>76967.47034521707</v>
+        <v>105794.762328571</v>
       </c>
     </row>
     <row r="5">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.37169685106738</v>
+        <v>84.66345138307622</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.9714631597768</v>
+        <v>115.8402692701437</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.95734457051628</v>
+        <v>104.7846365538703</v>
       </c>
       <c r="AD5" t="n">
-        <v>61371.69685106738</v>
+        <v>84663.45138307622</v>
       </c>
       <c r="AE5" t="n">
-        <v>83971.4631597768</v>
+        <v>115840.2692701437</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.470354172841504e-06</v>
+        <v>8.595163742346859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.548177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>75957.34457051629</v>
+        <v>104784.6365538703</v>
       </c>
     </row>
     <row r="6">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.66128347740864</v>
+        <v>83.95303800941748</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.9994442407113</v>
+        <v>114.8682503510782</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.07809377284897</v>
+        <v>103.9053857562029</v>
       </c>
       <c r="AD6" t="n">
-        <v>60661.28347740864</v>
+        <v>83953.03800941748</v>
       </c>
       <c r="AE6" t="n">
-        <v>82999.44424071129</v>
+        <v>114868.2503510782</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.518691417582278e-06</v>
+        <v>8.688101911748492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.509114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>75078.09377284897</v>
+        <v>103905.3857562029</v>
       </c>
     </row>
     <row r="7">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.16051100628032</v>
+        <v>83.28167333769694</v>
       </c>
       <c r="AB7" t="n">
-        <v>82.31426525319165</v>
+        <v>113.9496595887117</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.45830730624324</v>
+        <v>103.0744640069462</v>
       </c>
       <c r="AD7" t="n">
-        <v>60160.51100628031</v>
+        <v>83281.67333769695</v>
       </c>
       <c r="AE7" t="n">
-        <v>82314.26525319165</v>
+        <v>113949.6595887117</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.557400214681798e-06</v>
+        <v>8.76252743520275e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.483072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>74458.30730624324</v>
+        <v>103074.4640069462</v>
       </c>
     </row>
     <row r="8">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.04323320759655</v>
+        <v>83.16439553901319</v>
       </c>
       <c r="AB8" t="n">
-        <v>82.15380059510129</v>
+        <v>113.7891949306214</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.31315716990741</v>
+        <v>102.9293138706103</v>
       </c>
       <c r="AD8" t="n">
-        <v>60043.23320759655</v>
+        <v>83164.39553901319</v>
       </c>
       <c r="AE8" t="n">
-        <v>82153.80059510129</v>
+        <v>113789.1949306214</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.560008427080821e-06</v>
+        <v>8.767542253218875e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.483072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>74313.15716990741</v>
+        <v>102929.3138706103</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.4186821615143</v>
+        <v>124.6119076250508</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9783416902897</v>
+        <v>170.4995095018913</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.4323385535691</v>
+        <v>154.2272756126427</v>
       </c>
       <c r="AD2" t="n">
-        <v>88418.6821615143</v>
+        <v>124611.9076250508</v>
       </c>
       <c r="AE2" t="n">
-        <v>120978.3416902897</v>
+        <v>170499.5095018913</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189775271620105e-06</v>
+        <v>5.942309397979788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>109432.3385535691</v>
+        <v>154227.2756126427</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.337506458481</v>
+        <v>105.4379659911992</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2895646939805</v>
+        <v>144.2648766638641</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6682448355006</v>
+        <v>130.49643931213</v>
       </c>
       <c r="AD3" t="n">
-        <v>81337.506458481</v>
+        <v>105437.9659911992</v>
       </c>
       <c r="AE3" t="n">
-        <v>111289.5646939805</v>
+        <v>144264.8766638641</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792824034920283e-06</v>
+        <v>7.065743504915682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100668.2448355006</v>
+        <v>130496.43931213</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.45613316748147</v>
+        <v>91.64184404622023</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.29645735427609</v>
+        <v>125.3884139768089</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.48781300329796</v>
+        <v>113.4215197306396</v>
       </c>
       <c r="AD4" t="n">
-        <v>67456.13316748147</v>
+        <v>91641.84404622023</v>
       </c>
       <c r="AE4" t="n">
-        <v>92296.45735427609</v>
+        <v>125388.4139768089</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.971919941683224e-06</v>
+        <v>7.399385595430917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>83487.81300329795</v>
+        <v>113421.5197306396</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.17412741662449</v>
+        <v>90.35983829536323</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.54236052785238</v>
+        <v>123.6343171503852</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.9011247160972</v>
+        <v>111.8348314434388</v>
       </c>
       <c r="AD5" t="n">
-        <v>66174.12741662448</v>
+        <v>90359.83829536324</v>
       </c>
       <c r="AE5" t="n">
-        <v>90542.36052785238</v>
+        <v>123634.3171503852</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.101159801884069e-06</v>
+        <v>7.640149652603828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.736979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>81901.1247160972</v>
+        <v>111834.8314434388</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.77185710621893</v>
+        <v>89.95756798495769</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.99195654224219</v>
+        <v>123.083913164775</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.40325051437664</v>
+        <v>111.3369572417182</v>
       </c>
       <c r="AD6" t="n">
-        <v>65771.85710621893</v>
+        <v>89957.56798495768</v>
       </c>
       <c r="AE6" t="n">
-        <v>89991.95654224219</v>
+        <v>123083.913164775</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.128946489467758e-06</v>
+        <v>7.691914144051344e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>81403.25051437663</v>
+        <v>111336.9572417182</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.03679270975714</v>
+        <v>89.2225035884959</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.98620900625122</v>
+        <v>122.078165628784</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.49349011164479</v>
+        <v>110.4271968389864</v>
       </c>
       <c r="AD7" t="n">
-        <v>65036.79270975714</v>
+        <v>89222.50358849589</v>
       </c>
       <c r="AE7" t="n">
-        <v>88986.20900625121</v>
+        <v>122078.165628784</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.183602268686138e-06</v>
+        <v>7.793733715289771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.658854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>80493.49011164479</v>
+        <v>110427.1968389864</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.47871639048746</v>
+        <v>88.66442726922622</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.22262436563726</v>
+        <v>121.3145809881701</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.802780917433</v>
+        <v>109.7364876447746</v>
       </c>
       <c r="AD8" t="n">
-        <v>64478.71639048747</v>
+        <v>88664.42726922622</v>
       </c>
       <c r="AE8" t="n">
-        <v>88222.62436563725</v>
+        <v>121314.5809881701</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.226611637782651e-06</v>
+        <v>7.873856907809718e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>79802.780917433</v>
+        <v>109736.4876447746</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.84325817999255</v>
+        <v>88.02896905873131</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.35316240760088</v>
+        <v>120.4451190301337</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.01629918837381</v>
+        <v>108.9500059157154</v>
       </c>
       <c r="AD9" t="n">
-        <v>63843.25817999255</v>
+        <v>88028.96905873131</v>
       </c>
       <c r="AE9" t="n">
-        <v>87353.16240760087</v>
+        <v>120445.1190301337</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.265127139539211e-06</v>
+        <v>7.945608366319104e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH9" t="n">
-        <v>79016.29918837381</v>
+        <v>108950.0059157154</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>63.86281729008221</v>
+        <v>88.04852816882097</v>
       </c>
       <c r="AB10" t="n">
-        <v>87.37992404491258</v>
+        <v>120.4718806674454</v>
       </c>
       <c r="AC10" t="n">
-        <v>79.0405067325807</v>
+        <v>108.9742134599223</v>
       </c>
       <c r="AD10" t="n">
-        <v>63862.81729008221</v>
+        <v>88048.52816882097</v>
       </c>
       <c r="AE10" t="n">
-        <v>87379.92404491258</v>
+        <v>120471.8806674454</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.262774329413581e-06</v>
+        <v>7.941225259507291e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH10" t="n">
-        <v>79040.50673258069</v>
+        <v>108974.2134599223</v>
       </c>
     </row>
   </sheetData>
@@ -11179,28 +11179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.94964354704548</v>
+        <v>83.19061052526327</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.39399120953667</v>
+        <v>113.8250634313323</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.43498573271991</v>
+        <v>102.9617591319551</v>
       </c>
       <c r="AD2" t="n">
-        <v>60949.64354704547</v>
+        <v>83190.61052526327</v>
       </c>
       <c r="AE2" t="n">
-        <v>83393.99120953666</v>
+        <v>113825.0634313323</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.239356932046564e-06</v>
+        <v>8.49777975703716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>75434.98573271991</v>
+        <v>102961.7591319551</v>
       </c>
     </row>
     <row r="3">
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.81031747797735</v>
+        <v>80.05128445619513</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.09862678454827</v>
+        <v>109.5296990063439</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.54956485986922</v>
+        <v>99.07633825910445</v>
       </c>
       <c r="AD3" t="n">
-        <v>57810.31747797735</v>
+        <v>80051.28445619514</v>
       </c>
       <c r="AE3" t="n">
-        <v>79098.62678454828</v>
+        <v>109529.6990063439</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.726542789107591e-06</v>
+        <v>9.474342518892033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.509114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>71549.56485986922</v>
+        <v>99076.33825910445</v>
       </c>
     </row>
     <row r="4">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.72475819562473</v>
+        <v>78.79513297325032</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.61331668293865</v>
+        <v>107.8109771298874</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.20601066971093</v>
+        <v>97.52164878629512</v>
       </c>
       <c r="AD4" t="n">
-        <v>56724.75819562473</v>
+        <v>78795.13297325032</v>
       </c>
       <c r="AE4" t="n">
-        <v>77613.31668293865</v>
+        <v>107810.9771298874</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.851673702028804e-06</v>
+        <v>9.725167102866881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>70206.01066971093</v>
+        <v>97521.64878629512</v>
       </c>
     </row>
     <row r="5">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.07091759888255</v>
+        <v>78.14129237650812</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.71870313306511</v>
+        <v>106.9163635800139</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.39677778143903</v>
+        <v>96.71241589802324</v>
       </c>
       <c r="AD5" t="n">
-        <v>56070.91759888254</v>
+        <v>78141.29237650812</v>
       </c>
       <c r="AE5" t="n">
-        <v>76718.70313306511</v>
+        <v>106916.3635800139</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.927856944985107e-06</v>
+        <v>9.877876211865398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>69396.77778143903</v>
+        <v>96712.41589802323</v>
       </c>
     </row>
     <row r="6">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.13203252407465</v>
+        <v>78.20240730170022</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.80232326991312</v>
+        <v>106.9999837168619</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.47241732978789</v>
+        <v>96.78805544637207</v>
       </c>
       <c r="AD6" t="n">
-        <v>56132.03252407465</v>
+        <v>78202.40730170022</v>
       </c>
       <c r="AE6" t="n">
-        <v>76802.32326991312</v>
+        <v>106999.9837168619</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.926813338917213e-06</v>
+        <v>9.875784306262678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>69472.41732978789</v>
+        <v>96788.05544637208</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.4522873579303</v>
+        <v>76.7427853716741</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.87226594535464</v>
+        <v>105.0028645982263</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.63112337094132</v>
+        <v>94.98153857344415</v>
       </c>
       <c r="AD2" t="n">
-        <v>55452.28735793031</v>
+        <v>76742.78537167411</v>
       </c>
       <c r="AE2" t="n">
-        <v>75872.26594535464</v>
+        <v>105002.8645982263</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.774744851788951e-06</v>
+        <v>9.989064832539419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>68631.12337094132</v>
+        <v>94981.53857344415</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.23874368706673</v>
+        <v>74.35864950021833</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.84359784022597</v>
+        <v>101.7407847182508</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.89150709900278</v>
+        <v>92.03078701885458</v>
       </c>
       <c r="AD3" t="n">
-        <v>53238.74368706673</v>
+        <v>74358.64950021834</v>
       </c>
       <c r="AE3" t="n">
-        <v>72843.59784022596</v>
+        <v>101740.7847182508</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.180574698921528e-06</v>
+        <v>1.083808625249404e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>65891.50709900277</v>
+        <v>92030.78701885458</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.61815517754621</v>
+        <v>63.26349369296916</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.99448126306766</v>
+        <v>86.55990305905186</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.12342901622559</v>
+        <v>78.29874739870358</v>
       </c>
       <c r="AD4" t="n">
-        <v>52618.15517754621</v>
+        <v>63263.49369296916</v>
       </c>
       <c r="AE4" t="n">
-        <v>71994.48126306766</v>
+        <v>86559.90305905187</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.270670727966119e-06</v>
+        <v>1.10265727796733e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>65123.42901622559</v>
+        <v>78298.74739870358</v>
       </c>
     </row>
   </sheetData>
@@ -21662,28 +21662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.36522833690262</v>
+        <v>71.72540654209814</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.28017148446888</v>
+        <v>98.13786553247209</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.57273055684684</v>
+        <v>88.77172538343666</v>
       </c>
       <c r="AD2" t="n">
-        <v>51365.22833690262</v>
+        <v>71725.40654209814</v>
       </c>
       <c r="AE2" t="n">
-        <v>70280.17148446888</v>
+        <v>98137.86553247209</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.241290365162361e-06</v>
+        <v>1.139380930180317e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63572.73055684684</v>
+        <v>88771.72538343666</v>
       </c>
     </row>
     <row r="3">
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.11508876661317</v>
+        <v>60.38056347805807</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.56967537213433</v>
+        <v>82.61535075310775</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.02548179277659</v>
+        <v>74.73065762862358</v>
       </c>
       <c r="AD3" t="n">
-        <v>50115.08876661317</v>
+        <v>60380.56347805807</v>
       </c>
       <c r="AE3" t="n">
-        <v>68569.67537213433</v>
+        <v>82615.35075310775</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.496589778112762e-06</v>
+        <v>1.194879340368647e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>62025.48179277659</v>
+        <v>74730.65762862358</v>
       </c>
     </row>
   </sheetData>
@@ -22065,28 +22065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.25404014591785</v>
+        <v>54.76650699550933</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.91857419497259</v>
+        <v>74.93395099899639</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.00915237708193</v>
+        <v>67.78235988612992</v>
       </c>
       <c r="AD2" t="n">
-        <v>45254.04014591785</v>
+        <v>54766.50699550933</v>
       </c>
       <c r="AE2" t="n">
-        <v>61918.57419497259</v>
+        <v>74933.9509989964</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.827187025318547e-06</v>
+        <v>1.386012146121193e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56009.15237708193</v>
+        <v>67782.35988612993</v>
       </c>
     </row>
   </sheetData>
@@ -22362,28 +22362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.93121337679273</v>
+        <v>100.892474633079</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.628924224572</v>
+        <v>138.0455348547613</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.45240935124103</v>
+        <v>124.870662756385</v>
       </c>
       <c r="AD2" t="n">
-        <v>77931.21337679273</v>
+        <v>100892.474633079</v>
       </c>
       <c r="AE2" t="n">
-        <v>106628.9242245721</v>
+        <v>138045.5348547613</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.808066675446823e-06</v>
+        <v>7.389851155433956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.205729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96452.40935124103</v>
+        <v>124870.662756385</v>
       </c>
     </row>
     <row r="3">
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.16115025075052</v>
+        <v>85.20766285305737</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.05162812944869</v>
+        <v>116.5848834122872</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.9344201115041</v>
+        <v>105.4581857673602</v>
       </c>
       <c r="AD3" t="n">
-        <v>62161.15025075051</v>
+        <v>85207.66285305737</v>
       </c>
       <c r="AE3" t="n">
-        <v>85051.62812944868</v>
+        <v>116584.8834122871</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.332454731918724e-06</v>
+        <v>8.407467183535658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76934.42011150409</v>
+        <v>105458.1857673602</v>
       </c>
     </row>
     <row r="4">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.95795301772183</v>
+        <v>84.00446562002867</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.40536059390401</v>
+        <v>114.9386158767425</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.44527003900029</v>
+        <v>103.9690356948564</v>
       </c>
       <c r="AD4" t="n">
-        <v>60957.95301772183</v>
+        <v>84004.46562002867</v>
       </c>
       <c r="AE4" t="n">
-        <v>83405.36059390401</v>
+        <v>114938.6158767425</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.485487415441228e-06</v>
+        <v>8.704439072299987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>75445.27003900029</v>
+        <v>103969.0356948564</v>
       </c>
     </row>
     <row r="5">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.15180776105206</v>
+        <v>83.19832036335892</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.3023570891103</v>
+        <v>113.8356123719488</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.44753564062859</v>
+        <v>102.9713012964847</v>
       </c>
       <c r="AD5" t="n">
-        <v>60151.80776105206</v>
+        <v>83198.32036335891</v>
       </c>
       <c r="AE5" t="n">
-        <v>82302.3570891103</v>
+        <v>113835.6123719488</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.55934488818375e-06</v>
+        <v>8.847765273441071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>74447.53564062859</v>
+        <v>102971.3012964847</v>
       </c>
     </row>
     <row r="6">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.29485638036052</v>
+        <v>82.17077678207517</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.12983840402201</v>
+        <v>112.4296819120136</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.38692049320446</v>
+        <v>101.6995508664096</v>
       </c>
       <c r="AD6" t="n">
-        <v>59294.85638036052</v>
+        <v>82170.77678207516</v>
       </c>
       <c r="AE6" t="n">
-        <v>81129.83840402201</v>
+        <v>112429.6819120136</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.645364224771206e-06</v>
+        <v>9.014692522370055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>73386.92049320445</v>
+        <v>101699.5508664096</v>
       </c>
     </row>
     <row r="7">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.21866991562718</v>
+        <v>82.09459031734183</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.0255967218643</v>
+        <v>112.3254402298559</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.29262749088771</v>
+        <v>101.6052578640928</v>
       </c>
       <c r="AD7" t="n">
-        <v>59218.66991562718</v>
+        <v>82094.59031734182</v>
       </c>
       <c r="AE7" t="n">
-        <v>81025.59672186431</v>
+        <v>112325.4402298559</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.645856607922823e-06</v>
+        <v>9.015648030377661e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>73292.62749088771</v>
+        <v>101605.2578640928</v>
       </c>
     </row>
   </sheetData>
@@ -23189,28 +23189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.93733775583956</v>
+        <v>121.8124890136409</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.583256805258</v>
+        <v>166.6692214561293</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.3612758049322</v>
+        <v>150.762544882124</v>
       </c>
       <c r="AD2" t="n">
-        <v>85937.33775583956</v>
+        <v>121812.4890136409</v>
       </c>
       <c r="AE2" t="n">
-        <v>117583.256805258</v>
+        <v>166669.2214561293</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.321237618286763e-06</v>
+        <v>6.231944458427089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>106361.2758049322</v>
+        <v>150762.544882124</v>
       </c>
     </row>
     <row r="3">
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.16348642857601</v>
+        <v>104.0518964908041</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.683218694957</v>
+        <v>142.3683952243537</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.21520624410262</v>
+        <v>128.7809553994774</v>
       </c>
       <c r="AD3" t="n">
-        <v>80163.48642857601</v>
+        <v>104051.8964908041</v>
       </c>
       <c r="AE3" t="n">
-        <v>109683.218694957</v>
+        <v>142368.3952243537</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.859103695044653e-06</v>
+        <v>7.241192185229706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>99215.20624410262</v>
+        <v>128780.9553994775</v>
       </c>
     </row>
     <row r="4">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.89224102978302</v>
+        <v>89.86590243803163</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.15667113742637</v>
+        <v>122.9584923194723</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.55224497977487</v>
+        <v>111.2235063858619</v>
       </c>
       <c r="AD4" t="n">
-        <v>65892.24102978302</v>
+        <v>89865.90243803163</v>
       </c>
       <c r="AE4" t="n">
-        <v>90156.67113742637</v>
+        <v>122958.4923194723</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.095606293809624e-06</v>
+        <v>7.684963823748376e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.76953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>81552.24497977487</v>
+        <v>111223.5063858619</v>
       </c>
     </row>
     <row r="5">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.10935272013404</v>
+        <v>89.08301412838264</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.08548881357055</v>
+        <v>121.8873099956165</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.58329479349369</v>
+        <v>110.2545561995808</v>
       </c>
       <c r="AD5" t="n">
-        <v>65109.35272013405</v>
+        <v>89083.01412838264</v>
       </c>
       <c r="AE5" t="n">
-        <v>89085.48881357056</v>
+        <v>121887.3099956165</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.172234179656835e-06</v>
+        <v>7.828747793295502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.704427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>80583.2947934937</v>
+        <v>110254.5561995808</v>
       </c>
     </row>
     <row r="6">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.22300873200793</v>
+        <v>88.19667014025654</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.87275386628001</v>
+        <v>120.6745750483259</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.48630156748797</v>
+        <v>109.157562973575</v>
       </c>
       <c r="AD6" t="n">
-        <v>64223.00873200793</v>
+        <v>88196.67014025654</v>
       </c>
       <c r="AE6" t="n">
-        <v>87872.75386628001</v>
+        <v>120674.5750483259</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.260273215068291e-06</v>
+        <v>7.99394355521172e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>79486.30156748797</v>
+        <v>109157.562973575</v>
       </c>
     </row>
     <row r="7">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.70923884838852</v>
+        <v>87.68290025663713</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.16979124558469</v>
+        <v>119.9716124276306</v>
       </c>
       <c r="AC7" t="n">
-        <v>78.85042871269737</v>
+        <v>108.5216901187844</v>
       </c>
       <c r="AD7" t="n">
-        <v>63709.23884838852</v>
+        <v>87682.90025663712</v>
       </c>
       <c r="AE7" t="n">
-        <v>87169.7912455847</v>
+        <v>119971.6124276306</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.295408168300402e-06</v>
+        <v>8.059870508431317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH7" t="n">
-        <v>78850.42871269736</v>
+        <v>108521.6901187844</v>
       </c>
     </row>
     <row r="8">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.21824118106584</v>
+        <v>87.19190258931444</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.49798657586584</v>
+        <v>119.2998077579118</v>
       </c>
       <c r="AC8" t="n">
-        <v>78.24274013777249</v>
+        <v>107.9140015438596</v>
       </c>
       <c r="AD8" t="n">
-        <v>63218.24118106585</v>
+        <v>87191.90258931444</v>
       </c>
       <c r="AE8" t="n">
-        <v>86497.98657586584</v>
+        <v>119299.8077579118</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.303853842406164e-06</v>
+        <v>8.075717905694097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>78242.74013777249</v>
+        <v>107914.0015438596</v>
       </c>
     </row>
     <row r="9">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.80677096941613</v>
+        <v>86.78043237766474</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.9349948795024</v>
+        <v>118.7368160615483</v>
       </c>
       <c r="AC9" t="n">
-        <v>77.73347957874599</v>
+        <v>107.4047409848331</v>
       </c>
       <c r="AD9" t="n">
-        <v>62806.77096941613</v>
+        <v>86780.43237766474</v>
       </c>
       <c r="AE9" t="n">
-        <v>85934.9948795024</v>
+        <v>118736.8160615483</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.34105276655738e-06</v>
+        <v>8.145517677907685e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.5546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>77733.47957874599</v>
+        <v>107404.7409848331</v>
       </c>
     </row>
   </sheetData>
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.0594597371001</v>
+        <v>61.20925346297444</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.91585246157511</v>
+        <v>83.74920094969167</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.29300619157252</v>
+        <v>75.75629475381464</v>
       </c>
       <c r="AD2" t="n">
-        <v>43059.4597371001</v>
+        <v>61209.25346297444</v>
       </c>
       <c r="AE2" t="n">
-        <v>58915.85246157511</v>
+        <v>83749.20094969167</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.783153785813494e-06</v>
+        <v>1.446322873748719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.430989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>53293.00619157252</v>
+        <v>75756.29475381464</v>
       </c>
     </row>
   </sheetData>
@@ -24525,28 +24525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.07657593079337</v>
+        <v>78.70446987947894</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.09468922929919</v>
+        <v>107.686927885216</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.64144169585759</v>
+        <v>97.40943862743094</v>
       </c>
       <c r="AD2" t="n">
-        <v>57076.57593079338</v>
+        <v>78704.46987947893</v>
       </c>
       <c r="AE2" t="n">
-        <v>78094.6892292992</v>
+        <v>107686.927885216</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.621226006144452e-06</v>
+        <v>9.516414270683369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70641.44169585759</v>
+        <v>97409.43862743095</v>
       </c>
     </row>
     <row r="3">
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.81376108762793</v>
+        <v>76.27106283572127</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.99860613253644</v>
+        <v>104.3574330136064</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.84084442446895</v>
+        <v>94.39770607339128</v>
       </c>
       <c r="AD3" t="n">
-        <v>54813.76108762793</v>
+        <v>76271.06283572127</v>
       </c>
       <c r="AE3" t="n">
-        <v>74998.60613253644</v>
+        <v>104357.4330136064</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.013615696594882e-06</v>
+        <v>1.032445586936444e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>67840.84442446896</v>
+        <v>94397.70607339128</v>
       </c>
     </row>
     <row r="4">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.9192762585984</v>
+        <v>75.37657800669174</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.77473252757329</v>
+        <v>103.1335594086433</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.73377559864571</v>
+        <v>93.29063724756803</v>
       </c>
       <c r="AD4" t="n">
-        <v>53919.2762585984</v>
+        <v>75376.57800669175</v>
       </c>
       <c r="AE4" t="n">
-        <v>73774.73252757329</v>
+        <v>103133.5594086433</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.130381546017107e-06</v>
+        <v>1.056490985155286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>66733.77559864571</v>
+        <v>93290.63724756803</v>
       </c>
     </row>
     <row r="5">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.93379507021155</v>
+        <v>75.3910968183049</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.79459780614715</v>
+        <v>103.1534246872171</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.75174496291358</v>
+        <v>93.3086066118359</v>
       </c>
       <c r="AD5" t="n">
-        <v>53933.79507021155</v>
+        <v>75391.0968183049</v>
       </c>
       <c r="AE5" t="n">
-        <v>73794.59780614715</v>
+        <v>103153.4246872171</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.133203365604846e-06</v>
+        <v>1.057072077795169e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>66751.74496291358</v>
+        <v>93308.6066118359</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.09163633816529</v>
+        <v>96.52899964969153</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.3754455301406</v>
+        <v>132.0752358795634</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.70031529010082</v>
+        <v>119.4701607360108</v>
       </c>
       <c r="AD2" t="n">
-        <v>74091.63633816529</v>
+        <v>96528.99964969153</v>
       </c>
       <c r="AE2" t="n">
-        <v>101375.4455301406</v>
+        <v>132075.2358795634</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.091260421048175e-06</v>
+        <v>8.105540143346564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>91700.31529010081</v>
+        <v>119470.1607360108</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.44831739240666</v>
+        <v>81.97093204995346</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.33981053092548</v>
+        <v>112.1562455329975</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.57685317501405</v>
+        <v>101.4522108716363</v>
       </c>
       <c r="AD3" t="n">
-        <v>59448.31739240667</v>
+        <v>81970.93204995347</v>
       </c>
       <c r="AE3" t="n">
-        <v>81339.81053092548</v>
+        <v>112156.2455329975</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.567280299228518e-06</v>
+        <v>9.048623162890256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73576.85317501405</v>
+        <v>101452.2108716363</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.14905501821624</v>
+        <v>80.50107747517083</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.56210243114849</v>
+        <v>110.1451256583737</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.96880704125022</v>
+        <v>99.63302945522145</v>
       </c>
       <c r="AD4" t="n">
-        <v>58149.05501821624</v>
+        <v>80501.07747517084</v>
       </c>
       <c r="AE4" t="n">
-        <v>79562.10243114849</v>
+        <v>110145.1256583737</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.730464833908847e-06</v>
+        <v>9.3719217702876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>71968.80704125021</v>
+        <v>99633.02945522145</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.28190508392669</v>
+        <v>79.63392754088129</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.37562963509897</v>
+        <v>108.9586528623242</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.89556954363026</v>
+        <v>98.5597919576015</v>
       </c>
       <c r="AD5" t="n">
-        <v>57281.90508392669</v>
+        <v>79633.92754088128</v>
       </c>
       <c r="AE5" t="n">
-        <v>78375.62963509897</v>
+        <v>108958.6528623242</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.820119478829565e-06</v>
+        <v>9.549544128352057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.3984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>70895.56954363026</v>
+        <v>98559.7919576015</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.92508021930291</v>
+        <v>79.27710267625751</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.88740611331897</v>
+        <v>108.4704293405442</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.45394138954278</v>
+        <v>98.11816380351399</v>
       </c>
       <c r="AD6" t="n">
-        <v>56925.08021930292</v>
+        <v>79277.10267625752</v>
       </c>
       <c r="AE6" t="n">
-        <v>77887.40611331897</v>
+        <v>108470.4293405442</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.857852915244009e-06</v>
+        <v>9.62430101305932e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>70453.94138954277</v>
+        <v>98118.16380351399</v>
       </c>
     </row>
   </sheetData>
